--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1402,28 +1402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.5899264189805</v>
+        <v>71.70027568663792</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.53356624843302</v>
+        <v>98.10348038733636</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.75211711878059</v>
+        <v>88.74062190829281</v>
       </c>
       <c r="AD2" t="n">
-        <v>59589.9264189805</v>
+        <v>71700.27568663792</v>
       </c>
       <c r="AE2" t="n">
-        <v>81533.56624843302</v>
+        <v>98103.48038733636</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.971548363136157e-06</v>
+        <v>1.289918972375786e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.179361979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>73752.11711878059</v>
+        <v>88740.62190829281</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.08423340726303</v>
+        <v>70.76269419395953</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.84165476020038</v>
+        <v>96.82064002587822</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.12624069188078</v>
+        <v>87.58021403045409</v>
       </c>
       <c r="AD2" t="n">
-        <v>59084.23340726303</v>
+        <v>70762.69419395953</v>
       </c>
       <c r="AE2" t="n">
-        <v>80841.65476020038</v>
+        <v>96820.64002587822</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.855857194739255e-06</v>
+        <v>1.306832189405852e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.293294270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>73126.24069188078</v>
+        <v>87580.21403045408</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.36107372966778</v>
+        <v>86.82460572940958</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.4805898897044</v>
+        <v>118.7972559901963</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.50910903008624</v>
+        <v>107.4594126115189</v>
       </c>
       <c r="AD2" t="n">
-        <v>76361.07372966778</v>
+        <v>86824.60572940958</v>
       </c>
       <c r="AE2" t="n">
-        <v>104480.5898897044</v>
+        <v>118797.2559901963</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.61005081968565e-06</v>
+        <v>1.194794007916952e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.126627604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>94509.10903008624</v>
+        <v>107459.4126115189</v>
       </c>
     </row>
   </sheetData>
@@ -2293,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.67955289744648</v>
+        <v>82.53780413527525</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.02444126719699</v>
+        <v>112.9318649287658</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.10070511821043</v>
+        <v>102.1538062408613</v>
       </c>
       <c r="AD2" t="n">
-        <v>60679.55289744648</v>
+        <v>82537.80413527525</v>
       </c>
       <c r="AE2" t="n">
-        <v>83024.44126719699</v>
+        <v>112931.8649287658</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.319447451557203e-06</v>
+        <v>1.283066315973308e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>75100.70511821043</v>
+        <v>102153.8062408613</v>
       </c>
     </row>
   </sheetData>
@@ -2590,28 +2590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.16249814657859</v>
+        <v>104.2554747405653</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.154842951471</v>
+        <v>142.6469399669153</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.1646263610495</v>
+        <v>129.0329162227491</v>
       </c>
       <c r="AD2" t="n">
-        <v>84162.49814657858</v>
+        <v>104255.4747405653</v>
       </c>
       <c r="AE2" t="n">
-        <v>115154.842951471</v>
+        <v>142646.9399669153</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.859510447376538e-06</v>
+        <v>1.082118058708919e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.748372395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>104164.6263610495</v>
+        <v>129032.9162227491</v>
       </c>
     </row>
   </sheetData>
@@ -2887,28 +2887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.16831398945341</v>
+        <v>70.96029297102453</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.95669752212672</v>
+        <v>97.09100339010122</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.23030393407244</v>
+        <v>87.82477429465308</v>
       </c>
       <c r="AD2" t="n">
-        <v>59168.31398945341</v>
+        <v>70960.29297102452</v>
       </c>
       <c r="AE2" t="n">
-        <v>80956.69752212672</v>
+        <v>97091.00339010122</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.897360056988516e-06</v>
+        <v>1.304127780516416e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.259114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>73230.30393407244</v>
+        <v>87824.77429465308</v>
       </c>
     </row>
   </sheetData>
@@ -3184,28 +3184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.9601544761767</v>
+        <v>121.4740810997534</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.5063815187972</v>
+        <v>166.2061968188452</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.1920882651169</v>
+        <v>150.343710666363</v>
       </c>
       <c r="AD2" t="n">
-        <v>101960.1544761767</v>
+        <v>121474.0810997534</v>
       </c>
       <c r="AE2" t="n">
-        <v>139506.3815187972</v>
+        <v>166206.1968188452</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.336916095506659e-06</v>
+        <v>9.942669630223964e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.298502604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>126192.0882651169</v>
+        <v>150343.710666363</v>
       </c>
     </row>
   </sheetData>
@@ -3481,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.15422743617831</v>
+        <v>70.46426675681458</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.93742367848085</v>
+        <v>96.41231844068737</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.21286955901311</v>
+        <v>87.21086208427077</v>
       </c>
       <c r="AD2" t="n">
-        <v>59154.22743617831</v>
+        <v>70464.26675681458</v>
       </c>
       <c r="AE2" t="n">
-        <v>80937.42367848086</v>
+        <v>96412.31844068738</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.686501714467383e-06</v>
+        <v>1.310545095334247e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>73212.86955901311</v>
+        <v>87210.86208427078</v>
       </c>
     </row>
   </sheetData>
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.00631141698436</v>
+        <v>70.56693733696819</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.73503845542558</v>
+        <v>96.55279685795982</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.02979969759673</v>
+        <v>87.33793343856148</v>
       </c>
       <c r="AD2" t="n">
-        <v>59006.31141698436</v>
+        <v>70566.9373369682</v>
       </c>
       <c r="AE2" t="n">
-        <v>80735.03845542559</v>
+        <v>96552.79685795982</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.820353544361304e-06</v>
+        <v>1.3113514774875e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.327473958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>73029.79969759673</v>
+        <v>87337.93343856148</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.31415027112668</v>
+        <v>71.32175436447548</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.15623715655465</v>
+        <v>97.58557081517179</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.41079978584627</v>
+        <v>88.27214089880482</v>
       </c>
       <c r="AD2" t="n">
-        <v>59314.15027112668</v>
+        <v>71321.75436447548</v>
       </c>
       <c r="AE2" t="n">
-        <v>81156.23715655465</v>
+        <v>97585.5708151718</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.9675177936351e-06</v>
+        <v>1.297995718823174e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.198893229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>73410.79978584626</v>
+        <v>88272.14089880482</v>
       </c>
     </row>
   </sheetData>
@@ -4372,28 +4372,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.04861004380513</v>
+        <v>71.25443438748567</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.16115741961116</v>
+        <v>97.49346065270659</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.31981186941144</v>
+        <v>88.18882160096784</v>
       </c>
       <c r="AD2" t="n">
-        <v>60048.61004380514</v>
+        <v>71254.43438748567</v>
       </c>
       <c r="AE2" t="n">
-        <v>82161.15741961116</v>
+        <v>97493.46065270659</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.45783434813162e-06</v>
+        <v>1.294471186962782e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.566731770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>74319.81186941144</v>
+        <v>88188.82160096784</v>
       </c>
     </row>
   </sheetData>
@@ -4669,28 +4669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.61604916386906</v>
+        <v>84.82120632304127</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.04228500798654</v>
+        <v>116.0561165386606</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.73509149145939</v>
+        <v>104.9798836620234</v>
       </c>
       <c r="AD2" t="n">
-        <v>63616.04916386907</v>
+        <v>84821.20632304126</v>
       </c>
       <c r="AE2" t="n">
-        <v>87042.28500798653</v>
+        <v>116056.1165386606</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.881218479823029e-06</v>
+        <v>1.230387685894255e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.9345703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>78735.09149145939</v>
+        <v>104979.8836620234</v>
       </c>
     </row>
   </sheetData>
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.38613918254974</v>
+        <v>99.74631738774525</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.6196178988043</v>
+        <v>136.4773119468075</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.25311401516126</v>
+        <v>123.4521088417511</v>
       </c>
       <c r="AD2" t="n">
-        <v>79386.13918254974</v>
+        <v>99746.31738774525</v>
       </c>
       <c r="AE2" t="n">
-        <v>108619.6178988043</v>
+        <v>136477.3119468075</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.27659014432729e-06</v>
+        <v>1.147054593041553e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.3837890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>98253.11401516126</v>
+        <v>123452.1088417511</v>
       </c>
     </row>
   </sheetData>
@@ -7508,28 +7508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.7343638796137</v>
+        <v>155.1009037021428</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.4035477855442</v>
+        <v>212.2158990141237</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.8541565583481</v>
+        <v>191.9623114591612</v>
       </c>
       <c r="AD2" t="n">
-        <v>126734.3638796137</v>
+        <v>155100.9037021428</v>
       </c>
       <c r="AE2" t="n">
-        <v>173403.5477855442</v>
+        <v>212215.8990141237</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.625417979539818e-06</v>
+        <v>8.623154418376774e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.286458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>156854.156558348</v>
+        <v>191962.3114591613</v>
       </c>
     </row>
   </sheetData>
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.27772159334816</v>
+        <v>70.715726548481</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.10639383249826</v>
+        <v>96.75637682126826</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.36571343868226</v>
+        <v>87.5220840158981</v>
       </c>
       <c r="AD2" t="n">
-        <v>59277.72159334816</v>
+        <v>70715.72654848101</v>
       </c>
       <c r="AE2" t="n">
-        <v>81106.39383249826</v>
+        <v>96756.37682126826</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.73284721520825e-06</v>
+        <v>1.30656164960213e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.381184895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>73365.71343868226</v>
+        <v>87522.0840158981</v>
       </c>
     </row>
   </sheetData>
@@ -8102,28 +8102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.31380129972491</v>
+        <v>71.21538065782865</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.15575967848723</v>
+        <v>97.44002561686095</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.41036787761544</v>
+        <v>88.14048632994674</v>
       </c>
       <c r="AD2" t="n">
-        <v>59313.80129972492</v>
+        <v>71215.38065782865</v>
       </c>
       <c r="AE2" t="n">
-        <v>81155.75967848723</v>
+        <v>97440.02561686095</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.922416119854363e-06</v>
+        <v>1.298916781489012e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.2314453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>73410.36787761544</v>
+        <v>88140.48632994674</v>
       </c>
     </row>
   </sheetData>
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.2467741683682</v>
+        <v>213.7169538207091</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.5168559928493</v>
+        <v>292.4169647439293</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.3713876315072</v>
+        <v>264.5091000386425</v>
       </c>
       <c r="AD2" t="n">
-        <v>177246.7741683682</v>
+        <v>213716.9538207091</v>
       </c>
       <c r="AE2" t="n">
-        <v>242516.8559928493</v>
+        <v>292416.9647439293</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.697197593042005e-06</v>
+        <v>6.745486491135909e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.3583984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>219371.3876315072</v>
+        <v>264509.1000386425</v>
       </c>
     </row>
   </sheetData>
@@ -8696,28 +8696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.98076008191239</v>
+        <v>83.52331317602633</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.8048103421919</v>
+        <v>114.2802818759111</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.71115826745208</v>
+        <v>103.3735321670866</v>
       </c>
       <c r="AD2" t="n">
-        <v>61980.76008191239</v>
+        <v>83523.31317602633</v>
       </c>
       <c r="AE2" t="n">
-        <v>84804.81034219189</v>
+        <v>114280.2818759111</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.114464999281527e-06</v>
+        <v>1.259141662826907e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.781575520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>76711.15826745208</v>
+        <v>103373.5321670866</v>
       </c>
     </row>
   </sheetData>
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.46092143150058</v>
+        <v>70.63697741425341</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.35705593326473</v>
+        <v>96.64862878165151</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.59245270035812</v>
+        <v>87.42461929795702</v>
       </c>
       <c r="AD2" t="n">
-        <v>59460.92143150058</v>
+        <v>70636.97741425342</v>
       </c>
       <c r="AE2" t="n">
-        <v>81357.05593326474</v>
+        <v>96648.62878165151</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.591276672874991e-06</v>
+        <v>1.305853262066471e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.4853515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>73592.45270035812</v>
+        <v>87424.61929795702</v>
       </c>
     </row>
   </sheetData>
